--- a/artfynd/A 66859-2021.xlsx
+++ b/artfynd/A 66859-2021.xlsx
@@ -683,7 +683,7 @@
         <v>112389012</v>
       </c>
       <c r="B2" t="n">
-        <v>76719</v>
+        <v>76733</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -800,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112389257</v>
+        <v>112389108</v>
       </c>
       <c r="B3" t="n">
-        <v>96755</v>
+        <v>103766</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,26 +816,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>223621</v>
+        <v>221725</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skogsnattviol</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Platanthera bifolia subsp. latiflora</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Drejer) Løjtnant</t>
+          <t>(L.) A. Gray</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -878,12 +878,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-07-12</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-06-18</t>
+          <t>2023-07-12</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -895,6 +895,16 @@
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Frisk gräsmark med lövträd</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>slåtterängsmark</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -911,10 +921,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112389108</v>
+        <v>112389257</v>
       </c>
       <c r="B4" t="n">
-        <v>103740</v>
+        <v>96770</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -927,26 +937,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221725</v>
+        <v>223621</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Skogsnattviol</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Platanthera bifolia subsp. latiflora</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
+          <t>(Drejer) Løjtnant</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>24</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -989,12 +999,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-07-12</t>
+          <t>2023-06-18</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-07-12</t>
+          <t>2023-06-18</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1006,16 +1016,6 @@
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>Frisk gräsmark med lövträd</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>slåtterängsmark</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">

--- a/artfynd/A 66859-2021.xlsx
+++ b/artfynd/A 66859-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112389012</v>
+        <v>112389108</v>
       </c>
       <c r="B2" t="n">
-        <v>76733</v>
+        <v>103766</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,30 +696,31 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6254</v>
+        <v>221725</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Hårjordtunga</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Trichoglossum hirsutum</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Boud.</t>
+          <t>(L.) A. Gray</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -757,12 +758,12 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-07-12</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-07-12</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -782,7 +783,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>slåtterängsmark med mottmarkskikt</t>
+          <t>slåtterängsmark</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -800,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112389108</v>
+        <v>112389012</v>
       </c>
       <c r="B3" t="n">
-        <v>103766</v>
+        <v>76733</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,31 +817,30 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221725</v>
+        <v>6254</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Hårjordtunga</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Trichoglossum hirsutum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
+          <t>(Pers.:Fr.) Boud.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -878,12 +878,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-07-12</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-07-12</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -903,7 +903,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>slåtterängsmark</t>
+          <t>slåtterängsmark med mottmarkskikt</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
